--- a/New files/Eisenhower Medical Center/10181055 - Unit 2 North LDRP,6400.xlsx
+++ b/New files/Eisenhower Medical Center/10181055 - Unit 2 North LDRP,6400.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB37D315-9196-45DD-A552-8CDA2D218FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A2A7057-382C-4F58-9FA2-F63DFABD8033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D74AC77F-7B84-400D-B18F-3A9D37931E7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{17B8740E-E4AC-4DB1-8A74-CDFED9EA3571}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>PO Box 674907</t>
   </si>
   <si>
-    <t>Dallas, TX 75267-4907</t>
+    <t>Dallas, TX 7526 - 4907</t>
   </si>
   <si>
     <t>PNC Bank. N.A</t>
@@ -73,7 +73,7 @@
     <t>Account #4707877349</t>
   </si>
   <si>
-    <t>04/21/2024 - 04/27/2024</t>
+    <t>04/14/2024 - 04/27/2024</t>
   </si>
   <si>
     <t>Net 30</t>
@@ -127,16 +127,16 @@
     <t>Orientation</t>
   </si>
   <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Non-Productive Hours</t>
+  </si>
+  <si>
+    <t>On-Call</t>
+  </si>
+  <si>
     <t>Modules</t>
-  </si>
-  <si>
-    <t>Subtotal</t>
-  </si>
-  <si>
-    <t>Non-Productive Hours</t>
-  </si>
-  <si>
-    <t>On-Call</t>
   </si>
   <si>
     <t>Total Amount Due</t>
@@ -837,20 +837,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>883920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D585E4-D3CF-EA13-367F-1CC773ABBB8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F54AEF-8DDE-622A-CFC4-75831B0FD082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,21 +1201,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F1A78A-0188-4825-980B-9491A76D8219}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6438C8AD-C701-4F1E-A8A6-33DB416C11C2}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1571,62 +1573,62 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="47"/>
       <c r="C32" s="23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D32" s="18">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E32" s="16">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F32" s="18">
-        <v>2300</v>
+        <v>1260</v>
       </c>
       <c r="K32" s="44"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="47"/>
-      <c r="C33" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="18">
-        <v>105</v>
-      </c>
-      <c r="E33" s="16">
-        <v>12</v>
-      </c>
-      <c r="F33" s="18">
-        <v>1260</v>
+      <c r="C33" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="26">
+        <v>509.56000000000006</v>
+      </c>
+      <c r="F33" s="28">
+        <v>60079.659999999996</v>
       </c>
       <c r="K33" s="44"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="26">
-        <v>529.56000000000006</v>
-      </c>
-      <c r="F34" s="28">
-        <v>62379.659999999996</v>
+      <c r="D34" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="K34" s="44"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="47"/>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>20</v>
+      <c r="D35" s="18">
+        <v>10</v>
+      </c>
+      <c r="E35" s="16">
+        <v>24</v>
+      </c>
+      <c r="F35" s="18">
+        <v>240</v>
       </c>
       <c r="K35" s="44"/>
     </row>
@@ -1636,27 +1638,27 @@
         <v>34</v>
       </c>
       <c r="D36" s="18">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="E36" s="16">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F36" s="18">
-        <v>240</v>
+        <v>2300</v>
       </c>
       <c r="K36" s="44"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="47"/>
       <c r="C37" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="32">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F37" s="33">
-        <v>240</v>
+        <v>2540</v>
       </c>
       <c r="K37" s="44"/>
     </row>
@@ -1700,7 +1702,7 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="C37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1709,26 +1711,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326705CB-E695-4208-99D4-287F202312D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF47F68-E199-4FE9-8C6B-FD717854656C}">
   <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -2451,7 +2453,7 @@
         <v>67</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" s="43">
         <v>12</v>
@@ -3107,7 +3109,7 @@
         <v>67</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I34" s="43">
         <v>12</v>
@@ -3886,7 +3888,7 @@
         <v>98</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I53" s="43">
         <v>10</v>
@@ -4501,7 +4503,7 @@
         <v>116</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I68" s="43">
         <v>10</v>

--- a/New files/Eisenhower Medical Center/10181055 - Unit 2 North LDRP,6400.xlsx
+++ b/New files/Eisenhower Medical Center/10181055 - Unit 2 North LDRP,6400.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A2A7057-382C-4F58-9FA2-F63DFABD8033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CC4B85C-7D6C-4DDF-ACEB-9450E4D9A518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{17B8740E-E4AC-4DB1-8A74-CDFED9EA3571}"/>
+    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{D0391012-75AF-49C9-B522-1B4F7BBD5BB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -837,20 +837,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>883920</xdr:colOff>
+      <xdr:colOff>887730</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F54AEF-8DDE-622A-CFC4-75831B0FD082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB91F43-6DAD-FB1A-F8FE-8117E9C3E823}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6438C8AD-C701-4F1E-A8A6-33DB416C11C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C463F122-800E-4123-B296-CF6F2EE353B7}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1214,9 +1214,9 @@
     <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1711,26 +1711,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF47F68-E199-4FE9-8C6B-FD717854656C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666E15B0-0082-4E54-B3C0-A40EF58F8E42}">
   <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">

--- a/New files/Eisenhower Medical Center/10181055 - Unit 2 North LDRP,6400.xlsx
+++ b/New files/Eisenhower Medical Center/10181055 - Unit 2 North LDRP,6400.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CC4B85C-7D6C-4DDF-ACEB-9450E4D9A518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36DF846A-6723-4A5E-8348-FC58B1031F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{D0391012-75AF-49C9-B522-1B4F7BBD5BB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7A7C1F24-A1F9-40C1-B2E2-2E0B5AC552FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -837,20 +837,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>887730</xdr:colOff>
+      <xdr:colOff>883920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB91F43-6DAD-FB1A-F8FE-8117E9C3E823}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2444AACF-5059-ED2A-A8CB-114A109ABEAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C463F122-800E-4123-B296-CF6F2EE353B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B49C2CB-D696-4E3A-8494-CBF066390C6A}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1214,9 +1214,9 @@
     <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1711,26 +1711,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666E15B0-0082-4E54-B3C0-A40EF58F8E42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E9B742-7FEE-4EE1-A190-BE4C44CA098A}">
   <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">

--- a/New files/Eisenhower Medical Center/10181055 - Unit 2 North LDRP,6400.xlsx
+++ b/New files/Eisenhower Medical Center/10181055 - Unit 2 North LDRP,6400.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36DF846A-6723-4A5E-8348-FC58B1031F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{171B38C7-78BD-4F80-942D-A5580604FFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7A7C1F24-A1F9-40C1-B2E2-2E0B5AC552FA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FB4EF8E8-4A11-4712-92D3-FE1081575B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -837,20 +837,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>883920</xdr:colOff>
+      <xdr:colOff>331470</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2444AACF-5059-ED2A-A8CB-114A109ABEAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49688050-D23A-86F8-6466-1E221FAE3F2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B49C2CB-D696-4E3A-8494-CBF066390C6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8AC15D-C7CF-4FE9-8C64-E1C444B83D2D}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1209,14 +1209,14 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1711,26 +1711,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E9B742-7FEE-4EE1-A190-BE4C44CA098A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA3E829-9491-46CF-B57E-C2C6ACF39B6D}">
   <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
